--- a/xlsx/五角大楼_intext.xlsx
+++ b/xlsx/五角大楼_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="522">
   <si>
     <t>五角大楼</t>
   </si>
@@ -29,7 +29,7 @@
     <t>en-Stripped Classicism</t>
   </si>
   <si>
-    <t>政策_政策_美國_五角大楼</t>
+    <t>政策_政策_美国_五角大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%81%B5%E9%A1%BF%E5%8E%BF_(%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -77,19 +77,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E7%8F%8D%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>維珍尼亞州</t>
+    <t>维珍尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%9D%88%E9%A0%93%E7%B8%A3</t>
   </si>
   <si>
-    <t>阿靈頓縣</t>
+    <t>阿灵顿县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>美國軍事</t>
+    <t>美国军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
@@ -113,13 +113,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E6%96%AF%E5%88%A9%C2%B7%E6%A0%BC%E7%BE%85%E5%A4%AB%E6%96%AF</t>
   </si>
   <si>
-    <t>萊斯利·格羅夫斯</t>
+    <t>莱斯利·格罗夫斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%A6%E5%85%AC%E6%A8%93</t>
   </si>
   <si>
-    <t>辦公樓</t>
+    <t>办公楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E9%87%8C</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E7%88%86%E9%BB%9E</t>
   </si>
   <si>
-    <t>原爆點</t>
+    <t>原爆点</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%88%AA%E7%A9%BA77%E8%99%9F%E7%8F%AD%E6%A9%9F%E6%81%90%E6%80%96%E8%A5%B2%E6%93%8A</t>
   </si>
   <si>
-    <t>美國航空77號班機恐怖襲擊</t>
+    <t>美国航空77号班机恐怖袭击</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%90%E6%80%96%E5%88%86%E5%AD%90</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%88%B0%E7%88%AD%E9%83%A8</t>
   </si>
   <si>
-    <t>美國戰爭部</t>
+    <t>美国战争部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%BB%A0</t>
   </si>
   <si>
-    <t>工廠</t>
+    <t>工厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%BB%BA%E7%AF%89%E5%B8%AB%E5%AD%B8%E6%9C%83</t>
   </si>
   <si>
-    <t>美國建築師學會</t>
+    <t>美国建筑师学会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%8B%E6%B0%A3%E8%B1%A1%E5%93%A1</t>
   </si>
   <si>
-    <t>地下氣象員</t>
+    <t>地下气象员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E5%BE%B7%C2%B7%E5%B0%BC%E5%85%8B%E6%9D%BE</t>
@@ -491,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%80%E9%AB%94%E5%8C%96%E4%BD%9C%E6%88%B0%E5%8F%B8%E4%BB%A4%E9%83%A8</t>
   </si>
   <si>
-    <t>美國一體化作戰司令部</t>
+    <t>美国一体化作战司令部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%B0%8B%E9%95%BF%E8%81%94%E5%B8%AD%E4%BC%9A%E8%AE%AE</t>
@@ -515,13 +515,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9B%E4%BA%8B</t>
   </si>
   <si>
-    <t>美国军事</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%90%88%E7%9C%BE%E5%9C%8B%E8%BB%8D</t>
   </si>
   <si>
-    <t>美利堅合眾國軍</t>
+    <t>美利坚合众国军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E9%98%B2%E9%83%A8%E5%89%AF%E9%83%A8%E9%95%BF</t>
@@ -533,7 +530,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AC%80%E9%95%B7%E8%81%AF%E5%B8%AD%E6%9C%83%E8%AD%B0%E4%B8%BB%E5%B8%AD</t>
   </si>
   <si>
-    <t>美國參謀長聯席會議主席</t>
+    <t>美国参谋长联席会议主席</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2%E5%86%9B%E4%BA%8B%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -563,7 +560,7 @@
     <t>https://zh.wikipedia.org/wiki/1947%E5%B9%B4%E5%9C%8B%E5%AE%B6%E5%AE%89%E5%85%A8%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>1947年國家安全法案</t>
+    <t>1947年国家安全法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%88%E5%BE%B7%E5%8D%8E%E7%89%B9%EF%BC%8D%E5%B0%BC%E7%A7%91%E5%B0%94%E6%96%AF%E5%9B%BD%E9%98%B2%E9%83%A8%E9%87%8D%E6%9E%84%E6%B3%95%E6%A1%88</t>
@@ -575,7 +572,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%BB%8D%E9%9A%8A%E7%B5%90%E6%A7%8B</t>
   </si>
   <si>
-    <t>美國軍隊結構</t>
+    <t>美国军队结构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B%E9%83%A8</t>
@@ -593,7 +590,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A9%BA%E8%BB%8D%E9%83%A8</t>
   </si>
   <si>
-    <t>美國空軍部</t>
+    <t>美国空军部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%9C%9F%E5%AE%89%E5%85%A8%E9%83%A8</t>
@@ -695,7 +692,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%8F%B8%E4%BB%A4%E9%83%A8</t>
   </si>
   <si>
-    <t>美國太平洋司令部</t>
+    <t>美国太平洋司令部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8D%97%E6%96%B9%E5%8F%B8%E4%BB%A4%E9%83%A8</t>
@@ -737,7 +734,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B3%95%E5%85%B8%E7%AC%AC10%E5%8D%B7</t>
   </si>
   <si>
-    <t>美國法典第10卷</t>
+    <t>美国法典第10卷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B5%B7%E5%86%9B%E9%99%86%E6%88%98%E9%98%9F%E5%86%9B%E4%BA%8B%E5%8D%95%E4%BD%8D%E4%B8%8E%E7%BC%96%E5%88%B6</t>
@@ -749,7 +746,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A7%90%E5%A4%96%E7%BE%8E%E8%BB%8D</t>
   </si>
   <si>
-    <t>駐外美軍</t>
+    <t>驻外美军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E8%A3%94%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%86%9B%E4%BA%8B%E5%8F%B2</t>
@@ -773,7 +770,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%85%B5%E8%A8%93%E7%B7%B4</t>
   </si>
   <si>
-    <t>新兵訓練</t>
+    <t>新兵训练</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_Marine_Corps_Recruit_Training</t>
@@ -923,7 +920,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%80%80%E4%BC%8D%E8%BB%8D%E4%BA%BA%E4%BA%8B%E5%8B%99%E9%83%A8</t>
   </si>
   <si>
-    <t>美國退伍軍人事務部</t>
+    <t>美国退伍军人事务部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A7%E7%BC%BA%E4%BA%BA%E6%89%8D%E5%BE%81%E5%85%B5%E8%AE%A1%E5%88%92</t>
@@ -1007,7 +1004,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E8%A8%93%E7%B7%B4%E5%8F%8A%E6%88%B0%E7%95%A5%E6%80%9D%E6%83%B3%E5%8F%B8%E4%BB%A4%E9%83%A8</t>
   </si>
   <si>
-    <t>美國陸軍訓練及戰略思想司令部</t>
+    <t>美国陆军训练及战略思想司令部</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_Army_Materiel_Command</t>
@@ -1097,7 +1094,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E5%B7%A5%E5%85%B5%E9%83%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國陸軍工兵部隊</t>
+    <t>美国陆军工兵部队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_Army_Military_District_of_Washington</t>
@@ -1157,7 +1154,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC%E5%85%AB%E8%BB%8D%E5%9C%98</t>
   </si>
   <si>
-    <t>美國第八軍團</t>
+    <t>美国第八军团</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ninth_United_States_Army</t>
@@ -1283,7 +1280,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E8%BB%8D%E6%A2%B0%E5%85%B5</t>
   </si>
   <si>
-    <t>美國陸軍軍械兵</t>
+    <t>美国陆军军械兵</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Psychological_Operations_(United_States)</t>
@@ -1307,7 +1304,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E7%89%B9%E7%A8%AE%E9%83%A8%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國陸軍特種部隊</t>
+    <t>美国陆军特种部队</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Transportation_Corps</t>
@@ -1403,7 +1400,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E8%BB%8D%E5%AE%98%E8%BB%8D%E9%8A%9C</t>
   </si>
   <si>
-    <t>美國陸軍軍官軍銜</t>
+    <t>美国陆军军官军衔</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Warrant_officer_(United_States)</t>
@@ -1427,7 +1424,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8B%E7%AB%A0</t>
   </si>
   <si>
-    <t>紋章</t>
+    <t>纹章</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Coats_of_arms_of_U.S._Air_Defense_Artillery_Regiments</t>
@@ -1499,7 +1496,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E8%88%AA%E7%A9%BA%E8%BB%8D</t>
   </si>
   <si>
-    <t>美國陸軍航空軍</t>
+    <t>美国陆军航空军</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_Army_Center_of_Military_History</t>
@@ -1517,7 +1514,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E7%B3%BB%E5%88%97</t>
   </si>
   <si>
-    <t>美國陸軍系列</t>
+    <t>美国陆军系列</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_Army_Art_Program</t>
@@ -1553,7 +1550,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E9%81%8A%E9%A8%8E%E5%85%B5</t>
   </si>
   <si>
-    <t>美國陸軍遊騎兵</t>
+    <t>美国陆军游骑兵</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/U.S._Army_Regimental_System</t>
@@ -4390,7 +4387,7 @@
         <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>24</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -4416,10 +4413,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>166</v>
+      </c>
+      <c r="F86" t="s">
         <v>167</v>
-      </c>
-      <c r="F86" t="s">
-        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4474,10 +4471,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>168</v>
+      </c>
+      <c r="F88" t="s">
         <v>169</v>
-      </c>
-      <c r="F88" t="s">
-        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4503,10 +4500,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>170</v>
+      </c>
+      <c r="F89" t="s">
         <v>171</v>
-      </c>
-      <c r="F89" t="s">
-        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4532,10 +4529,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>172</v>
+      </c>
+      <c r="F90" t="s">
         <v>173</v>
-      </c>
-      <c r="F90" t="s">
-        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -4561,10 +4558,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>174</v>
+      </c>
+      <c r="F91" t="s">
         <v>175</v>
-      </c>
-      <c r="F91" t="s">
-        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -4590,10 +4587,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>176</v>
+      </c>
+      <c r="F92" t="s">
         <v>177</v>
-      </c>
-      <c r="F92" t="s">
-        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4619,10 +4616,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>178</v>
+      </c>
+      <c r="F93" t="s">
         <v>179</v>
-      </c>
-      <c r="F93" t="s">
-        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4648,10 +4645,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>180</v>
+      </c>
+      <c r="F94" t="s">
         <v>181</v>
-      </c>
-      <c r="F94" t="s">
-        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4677,10 +4674,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>182</v>
+      </c>
+      <c r="F95" t="s">
         <v>183</v>
-      </c>
-      <c r="F95" t="s">
-        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4706,10 +4703,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>184</v>
+      </c>
+      <c r="F96" t="s">
         <v>185</v>
-      </c>
-      <c r="F96" t="s">
-        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4793,10 +4790,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>186</v>
+      </c>
+      <c r="F99" t="s">
         <v>187</v>
-      </c>
-      <c r="F99" t="s">
-        <v>188</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -4822,10 +4819,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>188</v>
+      </c>
+      <c r="F100" t="s">
         <v>189</v>
-      </c>
-      <c r="F100" t="s">
-        <v>190</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4851,10 +4848,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>190</v>
+      </c>
+      <c r="F101" t="s">
         <v>191</v>
-      </c>
-      <c r="F101" t="s">
-        <v>192</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4880,10 +4877,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>192</v>
+      </c>
+      <c r="F102" t="s">
         <v>193</v>
-      </c>
-      <c r="F102" t="s">
-        <v>194</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4909,10 +4906,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>194</v>
+      </c>
+      <c r="F103" t="s">
         <v>195</v>
-      </c>
-      <c r="F103" t="s">
-        <v>196</v>
       </c>
       <c r="G103" t="n">
         <v>4</v>
@@ -4938,10 +4935,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>196</v>
+      </c>
+      <c r="F104" t="s">
         <v>197</v>
-      </c>
-      <c r="F104" t="s">
-        <v>198</v>
       </c>
       <c r="G104" t="n">
         <v>14</v>
@@ -4967,10 +4964,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>198</v>
+      </c>
+      <c r="F105" t="s">
         <v>199</v>
-      </c>
-      <c r="F105" t="s">
-        <v>200</v>
       </c>
       <c r="G105" t="n">
         <v>7</v>
@@ -4996,10 +4993,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>200</v>
+      </c>
+      <c r="F106" t="s">
         <v>201</v>
-      </c>
-      <c r="F106" t="s">
-        <v>202</v>
       </c>
       <c r="G106" t="n">
         <v>2</v>
@@ -5025,10 +5022,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>202</v>
+      </c>
+      <c r="F107" t="s">
         <v>203</v>
-      </c>
-      <c r="F107" t="s">
-        <v>204</v>
       </c>
       <c r="G107" t="n">
         <v>9</v>
@@ -5054,10 +5051,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>204</v>
+      </c>
+      <c r="F108" t="s">
         <v>205</v>
-      </c>
-      <c r="F108" t="s">
-        <v>206</v>
       </c>
       <c r="G108" t="n">
         <v>9</v>
@@ -5083,10 +5080,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>206</v>
+      </c>
+      <c r="F109" t="s">
         <v>207</v>
-      </c>
-      <c r="F109" t="s">
-        <v>208</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5112,10 +5109,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>208</v>
+      </c>
+      <c r="F110" t="s">
         <v>209</v>
-      </c>
-      <c r="F110" t="s">
-        <v>210</v>
       </c>
       <c r="G110" t="n">
         <v>6</v>
@@ -5141,10 +5138,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>210</v>
+      </c>
+      <c r="F111" t="s">
         <v>211</v>
-      </c>
-      <c r="F111" t="s">
-        <v>212</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5170,10 +5167,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>212</v>
+      </c>
+      <c r="F112" t="s">
         <v>213</v>
-      </c>
-      <c r="F112" t="s">
-        <v>214</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -5199,10 +5196,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>214</v>
+      </c>
+      <c r="F113" t="s">
         <v>215</v>
-      </c>
-      <c r="F113" t="s">
-        <v>216</v>
       </c>
       <c r="G113" t="n">
         <v>55</v>
@@ -5228,10 +5225,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>216</v>
+      </c>
+      <c r="F114" t="s">
         <v>217</v>
-      </c>
-      <c r="F114" t="s">
-        <v>218</v>
       </c>
       <c r="G114" t="n">
         <v>40</v>
@@ -5257,10 +5254,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>218</v>
+      </c>
+      <c r="F115" t="s">
         <v>219</v>
-      </c>
-      <c r="F115" t="s">
-        <v>220</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5286,10 +5283,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>220</v>
+      </c>
+      <c r="F116" t="s">
         <v>221</v>
-      </c>
-      <c r="F116" t="s">
-        <v>222</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5315,10 +5312,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>222</v>
+      </c>
+      <c r="F117" t="s">
         <v>223</v>
-      </c>
-      <c r="F117" t="s">
-        <v>224</v>
       </c>
       <c r="G117" t="n">
         <v>3</v>
@@ -5344,10 +5341,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>224</v>
+      </c>
+      <c r="F118" t="s">
         <v>225</v>
-      </c>
-      <c r="F118" t="s">
-        <v>226</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5373,10 +5370,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>226</v>
+      </c>
+      <c r="F119" t="s">
         <v>227</v>
-      </c>
-      <c r="F119" t="s">
-        <v>228</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -5402,10 +5399,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>228</v>
+      </c>
+      <c r="F120" t="s">
         <v>229</v>
-      </c>
-      <c r="F120" t="s">
-        <v>230</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5431,10 +5428,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>230</v>
+      </c>
+      <c r="F121" t="s">
         <v>231</v>
-      </c>
-      <c r="F121" t="s">
-        <v>232</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5460,10 +5457,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>232</v>
+      </c>
+      <c r="F122" t="s">
         <v>233</v>
-      </c>
-      <c r="F122" t="s">
-        <v>234</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -5489,10 +5486,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>234</v>
+      </c>
+      <c r="F123" t="s">
         <v>235</v>
-      </c>
-      <c r="F123" t="s">
-        <v>236</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -5518,10 +5515,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>236</v>
+      </c>
+      <c r="F124" t="s">
         <v>237</v>
-      </c>
-      <c r="F124" t="s">
-        <v>238</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5547,10 +5544,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>238</v>
+      </c>
+      <c r="F125" t="s">
         <v>239</v>
-      </c>
-      <c r="F125" t="s">
-        <v>240</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5576,10 +5573,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>240</v>
+      </c>
+      <c r="F126" t="s">
         <v>241</v>
-      </c>
-      <c r="F126" t="s">
-        <v>242</v>
       </c>
       <c r="G126" t="n">
         <v>18</v>
@@ -5605,10 +5602,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>242</v>
+      </c>
+      <c r="F127" t="s">
         <v>243</v>
-      </c>
-      <c r="F127" t="s">
-        <v>244</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5634,10 +5631,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>244</v>
+      </c>
+      <c r="F128" t="s">
         <v>245</v>
-      </c>
-      <c r="F128" t="s">
-        <v>246</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5663,10 +5660,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>246</v>
+      </c>
+      <c r="F129" t="s">
         <v>247</v>
-      </c>
-      <c r="F129" t="s">
-        <v>248</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5692,10 +5689,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>248</v>
+      </c>
+      <c r="F130" t="s">
         <v>249</v>
-      </c>
-      <c r="F130" t="s">
-        <v>250</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5721,10 +5718,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>250</v>
+      </c>
+      <c r="F131" t="s">
         <v>251</v>
-      </c>
-      <c r="F131" t="s">
-        <v>252</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5750,10 +5747,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>252</v>
+      </c>
+      <c r="F132" t="s">
         <v>253</v>
-      </c>
-      <c r="F132" t="s">
-        <v>254</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5779,10 +5776,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>254</v>
+      </c>
+      <c r="F133" t="s">
         <v>255</v>
-      </c>
-      <c r="F133" t="s">
-        <v>256</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5808,10 +5805,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>256</v>
+      </c>
+      <c r="F134" t="s">
         <v>257</v>
-      </c>
-      <c r="F134" t="s">
-        <v>258</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5837,10 +5834,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>258</v>
+      </c>
+      <c r="F135" t="s">
         <v>259</v>
-      </c>
-      <c r="F135" t="s">
-        <v>260</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5866,10 +5863,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>260</v>
+      </c>
+      <c r="F136" t="s">
         <v>261</v>
-      </c>
-      <c r="F136" t="s">
-        <v>262</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5895,10 +5892,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>262</v>
+      </c>
+      <c r="F137" t="s">
         <v>263</v>
-      </c>
-      <c r="F137" t="s">
-        <v>264</v>
       </c>
       <c r="G137" t="n">
         <v>68</v>
@@ -5924,10 +5921,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>264</v>
+      </c>
+      <c r="F138" t="s">
         <v>265</v>
-      </c>
-      <c r="F138" t="s">
-        <v>266</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5953,10 +5950,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>266</v>
+      </c>
+      <c r="F139" t="s">
         <v>267</v>
-      </c>
-      <c r="F139" t="s">
-        <v>268</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5982,10 +5979,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>268</v>
+      </c>
+      <c r="F140" t="s">
         <v>269</v>
-      </c>
-      <c r="F140" t="s">
-        <v>270</v>
       </c>
       <c r="G140" t="n">
         <v>18</v>
@@ -6011,10 +6008,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>270</v>
+      </c>
+      <c r="F141" t="s">
         <v>271</v>
-      </c>
-      <c r="F141" t="s">
-        <v>272</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6040,10 +6037,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>272</v>
+      </c>
+      <c r="F142" t="s">
         <v>273</v>
-      </c>
-      <c r="F142" t="s">
-        <v>274</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6069,10 +6066,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>274</v>
+      </c>
+      <c r="F143" t="s">
         <v>275</v>
-      </c>
-      <c r="F143" t="s">
-        <v>276</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6098,10 +6095,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>276</v>
+      </c>
+      <c r="F144" t="s">
         <v>277</v>
-      </c>
-      <c r="F144" t="s">
-        <v>278</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -6127,10 +6124,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>278</v>
+      </c>
+      <c r="F145" t="s">
         <v>279</v>
-      </c>
-      <c r="F145" t="s">
-        <v>280</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -6156,10 +6153,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>280</v>
+      </c>
+      <c r="F146" t="s">
         <v>281</v>
-      </c>
-      <c r="F146" t="s">
-        <v>282</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6185,10 +6182,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>282</v>
+      </c>
+      <c r="F147" t="s">
         <v>283</v>
-      </c>
-      <c r="F147" t="s">
-        <v>284</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6214,10 +6211,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>284</v>
+      </c>
+      <c r="F148" t="s">
         <v>285</v>
-      </c>
-      <c r="F148" t="s">
-        <v>286</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6243,10 +6240,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>286</v>
+      </c>
+      <c r="F149" t="s">
         <v>287</v>
-      </c>
-      <c r="F149" t="s">
-        <v>288</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6272,10 +6269,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>288</v>
+      </c>
+      <c r="F150" t="s">
         <v>289</v>
-      </c>
-      <c r="F150" t="s">
-        <v>290</v>
       </c>
       <c r="G150" t="n">
         <v>3</v>
@@ -6301,10 +6298,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>290</v>
+      </c>
+      <c r="F151" t="s">
         <v>291</v>
-      </c>
-      <c r="F151" t="s">
-        <v>292</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6330,10 +6327,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>292</v>
+      </c>
+      <c r="F152" t="s">
         <v>293</v>
-      </c>
-      <c r="F152" t="s">
-        <v>294</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6359,10 +6356,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>294</v>
+      </c>
+      <c r="F153" t="s">
         <v>295</v>
-      </c>
-      <c r="F153" t="s">
-        <v>296</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6388,10 +6385,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>296</v>
+      </c>
+      <c r="F154" t="s">
         <v>297</v>
-      </c>
-      <c r="F154" t="s">
-        <v>298</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6417,10 +6414,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>298</v>
+      </c>
+      <c r="F155" t="s">
         <v>299</v>
-      </c>
-      <c r="F155" t="s">
-        <v>300</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6446,10 +6443,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>300</v>
+      </c>
+      <c r="F156" t="s">
         <v>301</v>
-      </c>
-      <c r="F156" t="s">
-        <v>302</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6475,10 +6472,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>302</v>
+      </c>
+      <c r="F157" t="s">
         <v>303</v>
-      </c>
-      <c r="F157" t="s">
-        <v>304</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6504,10 +6501,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>304</v>
+      </c>
+      <c r="F158" t="s">
         <v>305</v>
-      </c>
-      <c r="F158" t="s">
-        <v>306</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6533,10 +6530,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>196</v>
+      </c>
+      <c r="F159" t="s">
         <v>197</v>
-      </c>
-      <c r="F159" t="s">
-        <v>198</v>
       </c>
       <c r="G159" t="n">
         <v>4</v>
@@ -6562,10 +6559,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>306</v>
+      </c>
+      <c r="F160" t="s">
         <v>307</v>
-      </c>
-      <c r="F160" t="s">
-        <v>308</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6591,10 +6588,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>308</v>
+      </c>
+      <c r="F161" t="s">
         <v>309</v>
-      </c>
-      <c r="F161" t="s">
-        <v>310</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6620,10 +6617,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>198</v>
+      </c>
+      <c r="F162" t="s">
         <v>199</v>
-      </c>
-      <c r="F162" t="s">
-        <v>200</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6649,10 +6646,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>310</v>
+      </c>
+      <c r="F163" t="s">
         <v>311</v>
-      </c>
-      <c r="F163" t="s">
-        <v>312</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6678,10 +6675,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>312</v>
+      </c>
+      <c r="F164" t="s">
         <v>313</v>
-      </c>
-      <c r="F164" t="s">
-        <v>314</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6707,10 +6704,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>314</v>
+      </c>
+      <c r="F165" t="s">
         <v>315</v>
-      </c>
-      <c r="F165" t="s">
-        <v>316</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -6736,10 +6733,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>316</v>
+      </c>
+      <c r="F166" t="s">
         <v>317</v>
-      </c>
-      <c r="F166" t="s">
-        <v>318</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -6765,10 +6762,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>318</v>
+      </c>
+      <c r="F167" t="s">
         <v>319</v>
-      </c>
-      <c r="F167" t="s">
-        <v>320</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6794,10 +6791,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>320</v>
+      </c>
+      <c r="F168" t="s">
         <v>321</v>
-      </c>
-      <c r="F168" t="s">
-        <v>322</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6823,10 +6820,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>322</v>
+      </c>
+      <c r="F169" t="s">
         <v>323</v>
-      </c>
-      <c r="F169" t="s">
-        <v>324</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6852,10 +6849,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>324</v>
+      </c>
+      <c r="F170" t="s">
         <v>325</v>
-      </c>
-      <c r="F170" t="s">
-        <v>326</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -6881,10 +6878,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>196</v>
+      </c>
+      <c r="F171" t="s">
         <v>197</v>
-      </c>
-      <c r="F171" t="s">
-        <v>198</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6910,10 +6907,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>326</v>
+      </c>
+      <c r="F172" t="s">
         <v>327</v>
-      </c>
-      <c r="F172" t="s">
-        <v>328</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6939,10 +6936,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>328</v>
+      </c>
+      <c r="F173" t="s">
         <v>329</v>
-      </c>
-      <c r="F173" t="s">
-        <v>330</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6968,10 +6965,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>330</v>
+      </c>
+      <c r="F174" t="s">
         <v>331</v>
-      </c>
-      <c r="F174" t="s">
-        <v>332</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6997,10 +6994,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>332</v>
+      </c>
+      <c r="F175" t="s">
         <v>333</v>
-      </c>
-      <c r="F175" t="s">
-        <v>334</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7026,10 +7023,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>334</v>
+      </c>
+      <c r="F176" t="s">
         <v>335</v>
-      </c>
-      <c r="F176" t="s">
-        <v>336</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -7055,10 +7052,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>336</v>
+      </c>
+      <c r="F177" t="s">
         <v>337</v>
-      </c>
-      <c r="F177" t="s">
-        <v>338</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -7084,10 +7081,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>338</v>
+      </c>
+      <c r="F178" t="s">
         <v>339</v>
-      </c>
-      <c r="F178" t="s">
-        <v>340</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7113,10 +7110,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>340</v>
+      </c>
+      <c r="F179" t="s">
         <v>341</v>
-      </c>
-      <c r="F179" t="s">
-        <v>342</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -7142,10 +7139,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>342</v>
+      </c>
+      <c r="F180" t="s">
         <v>343</v>
-      </c>
-      <c r="F180" t="s">
-        <v>344</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7171,10 +7168,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>344</v>
+      </c>
+      <c r="F181" t="s">
         <v>345</v>
-      </c>
-      <c r="F181" t="s">
-        <v>346</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7200,10 +7197,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>346</v>
+      </c>
+      <c r="F182" t="s">
         <v>347</v>
-      </c>
-      <c r="F182" t="s">
-        <v>348</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7229,10 +7226,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>348</v>
+      </c>
+      <c r="F183" t="s">
         <v>349</v>
-      </c>
-      <c r="F183" t="s">
-        <v>350</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7258,10 +7255,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>350</v>
+      </c>
+      <c r="F184" t="s">
         <v>351</v>
-      </c>
-      <c r="F184" t="s">
-        <v>352</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7287,10 +7284,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>352</v>
+      </c>
+      <c r="F185" t="s">
         <v>353</v>
-      </c>
-      <c r="F185" t="s">
-        <v>354</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7316,10 +7313,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>354</v>
+      </c>
+      <c r="F186" t="s">
         <v>355</v>
-      </c>
-      <c r="F186" t="s">
-        <v>356</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7345,10 +7342,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>356</v>
+      </c>
+      <c r="F187" t="s">
         <v>357</v>
-      </c>
-      <c r="F187" t="s">
-        <v>358</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7374,10 +7371,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>358</v>
+      </c>
+      <c r="F188" t="s">
         <v>359</v>
-      </c>
-      <c r="F188" t="s">
-        <v>360</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -7403,10 +7400,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>360</v>
+      </c>
+      <c r="F189" t="s">
         <v>361</v>
-      </c>
-      <c r="F189" t="s">
-        <v>362</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7432,10 +7429,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>362</v>
+      </c>
+      <c r="F190" t="s">
         <v>363</v>
-      </c>
-      <c r="F190" t="s">
-        <v>364</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7461,10 +7458,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>364</v>
+      </c>
+      <c r="F191" t="s">
         <v>365</v>
-      </c>
-      <c r="F191" t="s">
-        <v>366</v>
       </c>
       <c r="G191" t="n">
         <v>2</v>
@@ -7490,10 +7487,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>366</v>
+      </c>
+      <c r="F192" t="s">
         <v>367</v>
-      </c>
-      <c r="F192" t="s">
-        <v>368</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7519,10 +7516,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>368</v>
+      </c>
+      <c r="F193" t="s">
         <v>369</v>
-      </c>
-      <c r="F193" t="s">
-        <v>370</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7548,10 +7545,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>370</v>
+      </c>
+      <c r="F194" t="s">
         <v>371</v>
-      </c>
-      <c r="F194" t="s">
-        <v>372</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7577,10 +7574,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>372</v>
+      </c>
+      <c r="F195" t="s">
         <v>373</v>
-      </c>
-      <c r="F195" t="s">
-        <v>374</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7606,10 +7603,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>374</v>
+      </c>
+      <c r="F196" t="s">
         <v>375</v>
-      </c>
-      <c r="F196" t="s">
-        <v>376</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7635,10 +7632,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>376</v>
+      </c>
+      <c r="F197" t="s">
         <v>377</v>
-      </c>
-      <c r="F197" t="s">
-        <v>378</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7664,10 +7661,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>378</v>
+      </c>
+      <c r="F198" t="s">
         <v>379</v>
-      </c>
-      <c r="F198" t="s">
-        <v>380</v>
       </c>
       <c r="G198" t="n">
         <v>92</v>
@@ -7693,10 +7690,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>380</v>
+      </c>
+      <c r="F199" t="s">
         <v>381</v>
-      </c>
-      <c r="F199" t="s">
-        <v>382</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7722,10 +7719,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>382</v>
+      </c>
+      <c r="F200" t="s">
         <v>383</v>
-      </c>
-      <c r="F200" t="s">
-        <v>384</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7751,10 +7748,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>384</v>
+      </c>
+      <c r="F201" t="s">
         <v>385</v>
-      </c>
-      <c r="F201" t="s">
-        <v>386</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7780,10 +7777,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>386</v>
+      </c>
+      <c r="F202" t="s">
         <v>387</v>
-      </c>
-      <c r="F202" t="s">
-        <v>388</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7809,10 +7806,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>388</v>
+      </c>
+      <c r="F203" t="s">
         <v>389</v>
-      </c>
-      <c r="F203" t="s">
-        <v>390</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7838,10 +7835,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>390</v>
+      </c>
+      <c r="F204" t="s">
         <v>391</v>
-      </c>
-      <c r="F204" t="s">
-        <v>392</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7867,10 +7864,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>392</v>
+      </c>
+      <c r="F205" t="s">
         <v>393</v>
-      </c>
-      <c r="F205" t="s">
-        <v>394</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7896,10 +7893,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>394</v>
+      </c>
+      <c r="F206" t="s">
         <v>395</v>
-      </c>
-      <c r="F206" t="s">
-        <v>396</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7925,10 +7922,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>396</v>
+      </c>
+      <c r="F207" t="s">
         <v>397</v>
-      </c>
-      <c r="F207" t="s">
-        <v>398</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7954,10 +7951,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>398</v>
+      </c>
+      <c r="F208" t="s">
         <v>399</v>
-      </c>
-      <c r="F208" t="s">
-        <v>400</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7983,10 +7980,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>400</v>
+      </c>
+      <c r="F209" t="s">
         <v>401</v>
-      </c>
-      <c r="F209" t="s">
-        <v>402</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8012,10 +8009,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>402</v>
+      </c>
+      <c r="F210" t="s">
         <v>403</v>
-      </c>
-      <c r="F210" t="s">
-        <v>404</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8041,10 +8038,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>404</v>
+      </c>
+      <c r="F211" t="s">
         <v>405</v>
-      </c>
-      <c r="F211" t="s">
-        <v>406</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8070,10 +8067,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>406</v>
+      </c>
+      <c r="F212" t="s">
         <v>407</v>
-      </c>
-      <c r="F212" t="s">
-        <v>408</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8099,10 +8096,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>408</v>
+      </c>
+      <c r="F213" t="s">
         <v>409</v>
-      </c>
-      <c r="F213" t="s">
-        <v>410</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8128,10 +8125,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>410</v>
+      </c>
+      <c r="F214" t="s">
         <v>411</v>
-      </c>
-      <c r="F214" t="s">
-        <v>412</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8157,10 +8154,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>412</v>
+      </c>
+      <c r="F215" t="s">
         <v>413</v>
-      </c>
-      <c r="F215" t="s">
-        <v>414</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8186,10 +8183,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>414</v>
+      </c>
+      <c r="F216" t="s">
         <v>415</v>
-      </c>
-      <c r="F216" t="s">
-        <v>416</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8215,10 +8212,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>416</v>
+      </c>
+      <c r="F217" t="s">
         <v>417</v>
-      </c>
-      <c r="F217" t="s">
-        <v>418</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8244,10 +8241,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>418</v>
+      </c>
+      <c r="F218" t="s">
         <v>419</v>
-      </c>
-      <c r="F218" t="s">
-        <v>420</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8273,10 +8270,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>420</v>
+      </c>
+      <c r="F219" t="s">
         <v>421</v>
-      </c>
-      <c r="F219" t="s">
-        <v>422</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8302,10 +8299,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>422</v>
+      </c>
+      <c r="F220" t="s">
         <v>423</v>
-      </c>
-      <c r="F220" t="s">
-        <v>424</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8331,10 +8328,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>424</v>
+      </c>
+      <c r="F221" t="s">
         <v>425</v>
-      </c>
-      <c r="F221" t="s">
-        <v>426</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8360,10 +8357,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
+        <v>426</v>
+      </c>
+      <c r="F222" t="s">
         <v>427</v>
-      </c>
-      <c r="F222" t="s">
-        <v>428</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8389,10 +8386,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
+        <v>428</v>
+      </c>
+      <c r="F223" t="s">
         <v>429</v>
-      </c>
-      <c r="F223" t="s">
-        <v>430</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8418,10 +8415,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>430</v>
+      </c>
+      <c r="F224" t="s">
         <v>431</v>
-      </c>
-      <c r="F224" t="s">
-        <v>432</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8447,10 +8444,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>432</v>
+      </c>
+      <c r="F225" t="s">
         <v>433</v>
-      </c>
-      <c r="F225" t="s">
-        <v>434</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8476,10 +8473,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>434</v>
+      </c>
+      <c r="F226" t="s">
         <v>435</v>
-      </c>
-      <c r="F226" t="s">
-        <v>436</v>
       </c>
       <c r="G226" t="n">
         <v>5</v>
@@ -8505,10 +8502,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>436</v>
+      </c>
+      <c r="F227" t="s">
         <v>437</v>
-      </c>
-      <c r="F227" t="s">
-        <v>438</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8534,10 +8531,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>438</v>
+      </c>
+      <c r="F228" t="s">
         <v>439</v>
-      </c>
-      <c r="F228" t="s">
-        <v>440</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8563,10 +8560,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
+        <v>440</v>
+      </c>
+      <c r="F229" t="s">
         <v>441</v>
-      </c>
-      <c r="F229" t="s">
-        <v>442</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8592,10 +8589,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>442</v>
+      </c>
+      <c r="F230" t="s">
         <v>443</v>
-      </c>
-      <c r="F230" t="s">
-        <v>444</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8621,10 +8618,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
+        <v>444</v>
+      </c>
+      <c r="F231" t="s">
         <v>445</v>
-      </c>
-      <c r="F231" t="s">
-        <v>446</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8650,10 +8647,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
+        <v>446</v>
+      </c>
+      <c r="F232" t="s">
         <v>447</v>
-      </c>
-      <c r="F232" t="s">
-        <v>448</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8679,10 +8676,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>280</v>
+      </c>
+      <c r="F233" t="s">
         <v>281</v>
-      </c>
-      <c r="F233" t="s">
-        <v>282</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8708,10 +8705,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>448</v>
+      </c>
+      <c r="F234" t="s">
         <v>449</v>
-      </c>
-      <c r="F234" t="s">
-        <v>450</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8737,10 +8734,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>450</v>
+      </c>
+      <c r="F235" t="s">
         <v>451</v>
-      </c>
-      <c r="F235" t="s">
-        <v>452</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8766,10 +8763,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
+        <v>364</v>
+      </c>
+      <c r="F236" t="s">
         <v>365</v>
-      </c>
-      <c r="F236" t="s">
-        <v>366</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8795,10 +8792,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
+        <v>452</v>
+      </c>
+      <c r="F237" t="s">
         <v>453</v>
-      </c>
-      <c r="F237" t="s">
-        <v>454</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8824,10 +8821,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
+        <v>454</v>
+      </c>
+      <c r="F238" t="s">
         <v>455</v>
-      </c>
-      <c r="F238" t="s">
-        <v>456</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8853,10 +8850,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
+        <v>456</v>
+      </c>
+      <c r="F239" t="s">
         <v>457</v>
-      </c>
-      <c r="F239" t="s">
-        <v>458</v>
       </c>
       <c r="G239" t="n">
         <v>2</v>
@@ -8882,10 +8879,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
+        <v>458</v>
+      </c>
+      <c r="F240" t="s">
         <v>459</v>
-      </c>
-      <c r="F240" t="s">
-        <v>460</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8911,10 +8908,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
+        <v>460</v>
+      </c>
+      <c r="F241" t="s">
         <v>461</v>
-      </c>
-      <c r="F241" t="s">
-        <v>462</v>
       </c>
       <c r="G241" t="n">
         <v>17</v>
@@ -8940,10 +8937,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
+        <v>462</v>
+      </c>
+      <c r="F242" t="s">
         <v>463</v>
-      </c>
-      <c r="F242" t="s">
-        <v>464</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -8969,10 +8966,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
+        <v>464</v>
+      </c>
+      <c r="F243" t="s">
         <v>465</v>
-      </c>
-      <c r="F243" t="s">
-        <v>466</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -8998,10 +8995,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
+        <v>466</v>
+      </c>
+      <c r="F244" t="s">
         <v>467</v>
-      </c>
-      <c r="F244" t="s">
-        <v>468</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9027,10 +9024,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
+        <v>468</v>
+      </c>
+      <c r="F245" t="s">
         <v>469</v>
-      </c>
-      <c r="F245" t="s">
-        <v>470</v>
       </c>
       <c r="G245" t="n">
         <v>2</v>
@@ -9056,10 +9053,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
+        <v>470</v>
+      </c>
+      <c r="F246" t="s">
         <v>471</v>
-      </c>
-      <c r="F246" t="s">
-        <v>472</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9085,10 +9082,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
+        <v>472</v>
+      </c>
+      <c r="F247" t="s">
         <v>473</v>
-      </c>
-      <c r="F247" t="s">
-        <v>474</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9114,10 +9111,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
+        <v>474</v>
+      </c>
+      <c r="F248" t="s">
         <v>475</v>
-      </c>
-      <c r="F248" t="s">
-        <v>476</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9143,10 +9140,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
+        <v>476</v>
+      </c>
+      <c r="F249" t="s">
         <v>477</v>
-      </c>
-      <c r="F249" t="s">
-        <v>478</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9172,10 +9169,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
+        <v>478</v>
+      </c>
+      <c r="F250" t="s">
         <v>479</v>
-      </c>
-      <c r="F250" t="s">
-        <v>480</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9201,10 +9198,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
+        <v>480</v>
+      </c>
+      <c r="F251" t="s">
         <v>481</v>
-      </c>
-      <c r="F251" t="s">
-        <v>482</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9230,10 +9227,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
+        <v>482</v>
+      </c>
+      <c r="F252" t="s">
         <v>483</v>
-      </c>
-      <c r="F252" t="s">
-        <v>484</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9259,10 +9256,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
+        <v>484</v>
+      </c>
+      <c r="F253" t="s">
         <v>485</v>
-      </c>
-      <c r="F253" t="s">
-        <v>486</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9288,10 +9285,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
+        <v>486</v>
+      </c>
+      <c r="F254" t="s">
         <v>487</v>
-      </c>
-      <c r="F254" t="s">
-        <v>488</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -9317,10 +9314,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
+        <v>488</v>
+      </c>
+      <c r="F255" t="s">
         <v>489</v>
-      </c>
-      <c r="F255" t="s">
-        <v>490</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9346,10 +9343,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
+        <v>486</v>
+      </c>
+      <c r="F256" t="s">
         <v>487</v>
-      </c>
-      <c r="F256" t="s">
-        <v>488</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9375,10 +9372,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
+        <v>490</v>
+      </c>
+      <c r="F257" t="s">
         <v>491</v>
-      </c>
-      <c r="F257" t="s">
-        <v>492</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9404,10 +9401,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
+        <v>492</v>
+      </c>
+      <c r="F258" t="s">
         <v>493</v>
-      </c>
-      <c r="F258" t="s">
-        <v>494</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9433,10 +9430,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
+        <v>494</v>
+      </c>
+      <c r="F259" t="s">
         <v>495</v>
-      </c>
-      <c r="F259" t="s">
-        <v>496</v>
       </c>
       <c r="G259" t="n">
         <v>2</v>
@@ -9462,10 +9459,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
+        <v>496</v>
+      </c>
+      <c r="F260" t="s">
         <v>497</v>
-      </c>
-      <c r="F260" t="s">
-        <v>498</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9491,10 +9488,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
+        <v>498</v>
+      </c>
+      <c r="F261" t="s">
         <v>499</v>
-      </c>
-      <c r="F261" t="s">
-        <v>500</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9520,10 +9517,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
+        <v>500</v>
+      </c>
+      <c r="F262" t="s">
         <v>501</v>
-      </c>
-      <c r="F262" t="s">
-        <v>502</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9549,10 +9546,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
+        <v>502</v>
+      </c>
+      <c r="F263" t="s">
         <v>503</v>
-      </c>
-      <c r="F263" t="s">
-        <v>504</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9578,10 +9575,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
+        <v>504</v>
+      </c>
+      <c r="F264" t="s">
         <v>505</v>
-      </c>
-      <c r="F264" t="s">
-        <v>506</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9607,10 +9604,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
+        <v>506</v>
+      </c>
+      <c r="F265" t="s">
         <v>507</v>
-      </c>
-      <c r="F265" t="s">
-        <v>508</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9636,10 +9633,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
+        <v>508</v>
+      </c>
+      <c r="F266" t="s">
         <v>509</v>
-      </c>
-      <c r="F266" t="s">
-        <v>510</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9665,10 +9662,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
+        <v>510</v>
+      </c>
+      <c r="F267" t="s">
         <v>511</v>
-      </c>
-      <c r="F267" t="s">
-        <v>512</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9694,10 +9691,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
+        <v>512</v>
+      </c>
+      <c r="F268" t="s">
         <v>513</v>
-      </c>
-      <c r="F268" t="s">
-        <v>514</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9723,10 +9720,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
+        <v>514</v>
+      </c>
+      <c r="F269" t="s">
         <v>515</v>
-      </c>
-      <c r="F269" t="s">
-        <v>516</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9752,10 +9749,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
+        <v>516</v>
+      </c>
+      <c r="F270" t="s">
         <v>517</v>
-      </c>
-      <c r="F270" t="s">
-        <v>518</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -9781,10 +9778,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
+        <v>518</v>
+      </c>
+      <c r="F271" t="s">
         <v>519</v>
-      </c>
-      <c r="F271" t="s">
-        <v>520</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -9810,10 +9807,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
+        <v>520</v>
+      </c>
+      <c r="F272" t="s">
         <v>521</v>
-      </c>
-      <c r="F272" t="s">
-        <v>522</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
